--- a/Data Mix/ResultatExcel/Normandie.xlsx
+++ b/Data Mix/ResultatExcel/Normandie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>6496893</v>
       </c>
       <c r="D2" t="n">
+        <v>16563895</v>
+      </c>
+      <c r="E2" t="n">
         <v>1359372</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>14923798</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>172793</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>3332</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>28783</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>75817</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>12525152</v>
       </c>
       <c r="D3" t="n">
+        <v>30839187</v>
+      </c>
+      <c r="E3" t="n">
         <v>2722643</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>27558482</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>349953</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10725</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>50593</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>146791</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>18815780</v>
       </c>
       <c r="D4" t="n">
+        <v>45078753</v>
+      </c>
+      <c r="E4" t="n">
         <v>4132278</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>40132379</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>494994</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>21362</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>80944</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>216796</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>23891986</v>
       </c>
       <c r="D5" t="n">
+        <v>56895836</v>
+      </c>
+      <c r="E5" t="n">
         <v>5049926</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>50732611</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>680327</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>40980</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>108426</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>283566</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>28349112</v>
       </c>
       <c r="D6" t="n">
+        <v>66913494</v>
+      </c>
+      <c r="E6" t="n">
         <v>5787486</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>59776787</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>816495</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>61740</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>123411</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>347575</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>32313218</v>
       </c>
       <c r="D7" t="n">
+        <v>77173506</v>
+      </c>
+      <c r="E7" t="n">
         <v>6191688</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>69411510</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>948962</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>84593</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>139085</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>397668</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>36365323</v>
       </c>
       <c r="D8" t="n">
+        <v>89288300</v>
+      </c>
+      <c r="E8" t="n">
         <v>6948410</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>80565936</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1042022</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>111983</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>160022</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>459927</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>40116776</v>
       </c>
       <c r="D9" t="n">
+        <v>102687660</v>
+      </c>
+      <c r="E9" t="n">
         <v>7626389</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>93091904</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1124184</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>136920</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>180899</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>527364</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>44122841</v>
       </c>
       <c r="D10" t="n">
+        <v>115061805</v>
+      </c>
+      <c r="E10" t="n">
         <v>8374471</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>104520941</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1224383</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>153796</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>201659</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>586555</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>48713243</v>
       </c>
       <c r="D11" t="n">
+        <v>128145496</v>
+      </c>
+      <c r="E11" t="n">
         <v>9237647</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>116434162</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1439463</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>164555</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>220925</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>648744</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>54231965</v>
       </c>
       <c r="D12" t="n">
+        <v>142320626</v>
+      </c>
+      <c r="E12" t="n">
         <v>10353307</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>129188491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1649760</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>170391</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>234426</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>724251</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>60092313</v>
       </c>
       <c r="D13" t="n">
+        <v>158501178</v>
+      </c>
+      <c r="E13" t="n">
         <v>11398192</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>143961416</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1919243</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>176313</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>255673</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>790341</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>406034602</v>
       </c>
       <c r="D14" t="n">
+        <v>1029469736</v>
+      </c>
+      <c r="E14" t="n">
         <v>79181809</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>930298417</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>11862579</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1136690</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1784846</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>5205395</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>65824709</v>
       </c>
       <c r="D15" t="n">
+        <v>174440288</v>
+      </c>
+      <c r="E15" t="n">
         <v>12197753</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>158658519</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2232338</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>182065</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>287708</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>881905</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>71017391</v>
       </c>
       <c r="D16" t="n">
+        <v>186047187</v>
+      </c>
+      <c r="E16" t="n">
         <v>13002498</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>168996042</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>2565207</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>193225</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>318057</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>972158</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>76097871</v>
       </c>
       <c r="D17" t="n">
+        <v>196430027</v>
+      </c>
+      <c r="E17" t="n">
         <v>13809028</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>178278828</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2715429</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>213541</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>350369</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1062832</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>80430652</v>
       </c>
       <c r="D18" t="n">
+        <v>207899956</v>
+      </c>
+      <c r="E18" t="n">
         <v>14172400</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>189169842</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2822445</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>236111</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>381172</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1117986</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>84499323</v>
       </c>
       <c r="D19" t="n">
+        <v>221252519</v>
+      </c>
+      <c r="E19" t="n">
         <v>14529104</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>201857919</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2988847</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>262344</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>415116</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1199189</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>88180052</v>
       </c>
       <c r="D20" t="n">
+        <v>233719709</v>
+      </c>
+      <c r="E20" t="n">
         <v>14842350</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>213798383</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>3070953</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>293408</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>438042</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1276573</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>91978948</v>
       </c>
       <c r="D21" t="n">
+        <v>247347451</v>
+      </c>
+      <c r="E21" t="n">
         <v>15162197</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>226888188</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>3165462</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>322936</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>458651</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1350017</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>95561138</v>
       </c>
       <c r="D22" t="n">
+        <v>260374606</v>
+      </c>
+      <c r="E22" t="n">
         <v>15494130</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>239316429</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>3295839</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>348907</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>486598</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>1432703</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>99355420</v>
       </c>
       <c r="D23" t="n">
+        <v>271742872</v>
+      </c>
+      <c r="E23" t="n">
         <v>15825239</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>250152872</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>3357810</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>373655</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>506862</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>1526434</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>103650552</v>
       </c>
       <c r="D24" t="n">
+        <v>284306498</v>
+      </c>
+      <c r="E24" t="n">
         <v>16189009</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>262072634</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>3548284</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>388348</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>529025</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1579198</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>108519198</v>
       </c>
       <c r="D25" t="n">
+        <v>296806855</v>
+      </c>
+      <c r="E25" t="n">
         <v>16711466</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>273744342</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>3741629</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>396357</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>547946</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>1665115</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>114375289</v>
       </c>
       <c r="D26" t="n">
+        <v>312080203</v>
+      </c>
+      <c r="E26" t="n">
         <v>17275736</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>288055985</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>4012518</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>401659</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>567239</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>1767066</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>1891559747</v>
       </c>
       <c r="D27" t="n">
+        <v>4951387643</v>
+      </c>
+      <c r="E27" t="n">
         <v>337574528</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>4511586817</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>61241919</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>5885936</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>8856477</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>26241966</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>120615093</v>
       </c>
       <c r="D28" t="n">
+        <v>328077051</v>
+      </c>
+      <c r="E28" t="n">
         <v>17861532</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>303049895</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>4314217</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>408491</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>588787</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>1854129</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>126400783</v>
       </c>
       <c r="D29" t="n">
+        <v>341017385</v>
+      </c>
+      <c r="E29" t="n">
         <v>18390699</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>315127733</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>4530423</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>419581</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>613856</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>1935093</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>131970491</v>
       </c>
       <c r="D30" t="n">
+        <v>355032602</v>
+      </c>
+      <c r="E30" t="n">
         <v>18863837</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>328293288</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>4763124</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>438055</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>642110</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>2032188</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>136441353</v>
       </c>
       <c r="D31" t="n">
+        <v>367038016</v>
+      </c>
+      <c r="E31" t="n">
         <v>19546659</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>339355130</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>4907681</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>466465</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>665727</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>2096354</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>140635941</v>
       </c>
       <c r="D32" t="n">
+        <v>377369141</v>
+      </c>
+      <c r="E32" t="n">
         <v>19926569</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>349002418</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>5078017</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>494838</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>685232</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>2182067</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>144510929</v>
       </c>
       <c r="D33" t="n">
+        <v>385875876</v>
+      </c>
+      <c r="E33" t="n">
         <v>20283185</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>356885375</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>5224182</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>530605</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>705437</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>2247092</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>148383318</v>
       </c>
       <c r="D34" t="n">
+        <v>395980314</v>
+      </c>
+      <c r="E34" t="n">
         <v>20632423</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>366370560</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>5374808</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>560417</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>721535</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>2320571</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>151984474</v>
       </c>
       <c r="D35" t="n">
+        <v>405426437</v>
+      </c>
+      <c r="E35" t="n">
         <v>21022806</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>375200704</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>5484338</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>588169</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>738096</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>2392324</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>155995379</v>
       </c>
       <c r="D36" t="n">
+        <v>415491594</v>
+      </c>
+      <c r="E36" t="n">
         <v>21565654</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>384451719</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>5645501</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>613408</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>755870</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>2459442</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>160658558</v>
       </c>
       <c r="D37" t="n">
+        <v>427261692</v>
+      </c>
+      <c r="E37" t="n">
         <v>22195118</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>395348646</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>5789998</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>629064</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>770834</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>2528032</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>165519309</v>
       </c>
       <c r="D38" t="n">
+        <v>439370297</v>
+      </c>
+      <c r="E38" t="n">
         <v>23201292</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>406013820</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6126820</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>638064</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>783525</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>2606776</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>170711068</v>
       </c>
       <c r="D39" t="n">
+        <v>452364508</v>
+      </c>
+      <c r="E39" t="n">
         <v>24228544</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>417475501</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>6532475</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>644882</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>801539</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>2681567</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>5536946190</v>
       </c>
       <c r="D40" t="n">
+        <v>14593080199</v>
+      </c>
+      <c r="E40" t="n">
         <v>922867374</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>13359748423</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>186255422</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>18203911</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>26185502</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>79819567</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>176643367</v>
       </c>
       <c r="D41" t="n">
+        <v>464594119</v>
+      </c>
+      <c r="E41" t="n">
         <v>25299277</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>428155834</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>6905693</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>651708</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>830126</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>2751481</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>182166817</v>
       </c>
       <c r="D42" t="n">
+        <v>477131112</v>
+      </c>
+      <c r="E42" t="n">
         <v>26137480</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>439428356</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>7225949</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>663815</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>858257</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>2817255</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>187857300</v>
       </c>
       <c r="D43" t="n">
+        <v>489947408</v>
+      </c>
+      <c r="E43" t="n">
         <v>27358627</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>450648897</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>7476949</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>683564</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>887751</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>2891620</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>192730666</v>
       </c>
       <c r="D44" t="n">
+        <v>499466505</v>
+      </c>
+      <c r="E44" t="n">
         <v>28252916</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>458973214</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>7655602</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>709574</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>915231</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>2959968</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>196776755</v>
       </c>
       <c r="D45" t="n">
+        <v>508529501</v>
+      </c>
+      <c r="E45" t="n">
         <v>28881137</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>467156809</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>7795981</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>739506</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>938441</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>3017627</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>200611789</v>
       </c>
       <c r="D46" t="n">
+        <v>519051852</v>
+      </c>
+      <c r="E46" t="n">
         <v>29457130</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>476903145</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>7909446</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>764720</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>945745</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>3071666</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>204475654</v>
       </c>
       <c r="D47" t="n">
+        <v>528974240</v>
+      </c>
+      <c r="E47" t="n">
         <v>29907923</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>486143049</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>8017990</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>798266</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>964668</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>3142344</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>208192690</v>
       </c>
       <c r="D48" t="n">
+        <v>538441743</v>
+      </c>
+      <c r="E48" t="n">
         <v>30423707</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>494817975</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>8166970</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>830570</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>984033</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>3218488</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>212044082</v>
       </c>
       <c r="D49" t="n">
+        <v>546489634</v>
+      </c>
+      <c r="E49" t="n">
         <v>31342578</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>501711701</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>8288778</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>852401</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>1004103</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>3290073</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>216618241</v>
       </c>
       <c r="D50" t="n">
+        <v>554576959</v>
+      </c>
+      <c r="E50" t="n">
         <v>32050055</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>508828302</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>8430099</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>876934</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>1024100</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>3367469</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>221908801</v>
       </c>
       <c r="D51" t="n">
+        <v>566064674</v>
+      </c>
+      <c r="E51" t="n">
         <v>33160963</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>518827822</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>8707883</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>886690</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>1042980</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>3438336</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>227922157</v>
       </c>
       <c r="D52" t="n">
+        <v>580771678</v>
+      </c>
+      <c r="E52" t="n">
         <v>34424328</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>531967809</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>8901078</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>895661</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>1064120</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>3518682</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>13501840699</v>
       </c>
       <c r="D53" t="n">
+        <v>35460199823</v>
+      </c>
+      <c r="E53" t="n">
         <v>2202430869</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>32483059759</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>467993262</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>45761231</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>63830559</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>197124143</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>234530734</v>
       </c>
       <c r="D54" t="n">
+        <v>595314398</v>
+      </c>
+      <c r="E54" t="n">
         <v>35716381</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>544920863</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>9092987</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>904851</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>1088029</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>3591287</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>239772847</v>
       </c>
       <c r="D55" t="n">
+        <v>606152946</v>
+      </c>
+      <c r="E55" t="n">
         <v>36614122</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>554464898</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>9391649</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>914790</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>1113717</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>3653770</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>244866226</v>
       </c>
       <c r="D56" t="n">
+        <v>616445546</v>
+      </c>
+      <c r="E56" t="n">
         <v>37596845</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>563361429</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>9694309</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>932889</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>1139983</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>3720091</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>249310611</v>
       </c>
       <c r="D57" t="n">
+        <v>625839052</v>
+      </c>
+      <c r="E57" t="n">
         <v>38388742</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>571728174</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>9803830</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>964674</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>1163285</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>3790347</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>253444307</v>
       </c>
       <c r="D58" t="n">
+        <v>633675451</v>
+      </c>
+      <c r="E58" t="n">
         <v>38835314</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>578839577</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>9954634</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>997756</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>1185840</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>3862330</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>257216061</v>
       </c>
       <c r="D59" t="n">
+        <v>640975768</v>
+      </c>
+      <c r="E59" t="n">
         <v>39395058</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>585316894</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>10104013</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1035286</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>1201014</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>3923503</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>261067647</v>
       </c>
       <c r="D60" t="n">
+        <v>649791796</v>
+      </c>
+      <c r="E60" t="n">
         <v>40271088</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>592969623</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>10274787</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>1067764</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>1215256</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>3993278</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>264720218</v>
       </c>
       <c r="D61" t="n">
+        <v>658384493</v>
+      </c>
+      <c r="E61" t="n">
         <v>40864037</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>600722522</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>10400153</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>1097934</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>1229529</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>4070318</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>268658552</v>
       </c>
       <c r="D62" t="n">
+        <v>666778455</v>
+      </c>
+      <c r="E62" t="n">
         <v>41728798</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>607950435</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>10588862</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>1120532</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>1247738</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>4142090</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>272999652</v>
       </c>
       <c r="D63" t="n">
+        <v>675153271</v>
+      </c>
+      <c r="E63" t="n">
         <v>42649257</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>615043263</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>10836286</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>1137689</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>1267542</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>4219234</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>278197620</v>
       </c>
       <c r="D64" t="n">
+        <v>686596601</v>
+      </c>
+      <c r="E64" t="n">
         <v>43843983</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>624917921</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>11097184</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>1147634</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>1288761</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>4301118</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>284128754</v>
       </c>
       <c r="D65" t="n">
+        <v>700775044</v>
+      </c>
+      <c r="E65" t="n">
         <v>44524454</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>637909611</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>11490930</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>1153320</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>1316796</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>4379933</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>30112594627</v>
       </c>
       <c r="D66" t="n">
+        <v>78676282467</v>
+      </c>
+      <c r="E66" t="n">
         <v>4885289817</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>72044264728</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>1058716148</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>103997581</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>142118608</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>441895585</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>289929813</v>
       </c>
       <c r="D67" t="n">
+        <v>715163144</v>
+      </c>
+      <c r="E67" t="n">
         <v>45281830</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>650984352</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>11945368</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>1157538</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>1340498</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>4453558</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>295828748</v>
       </c>
       <c r="D68" t="n">
+        <v>728055179</v>
+      </c>
+      <c r="E68" t="n">
         <v>46469152</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>662263682</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>12265038</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>1173767</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>1360515</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>4523025</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>301628667</v>
       </c>
       <c r="D69" t="n">
+        <v>739377083</v>
+      </c>
+      <c r="E69" t="n">
         <v>47135166</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>672460092</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>12603785</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>1190554</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>1383064</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>4604422</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>305999995</v>
       </c>
       <c r="D70" t="n">
+        <v>750254949</v>
+      </c>
+      <c r="E70" t="n">
         <v>47527317</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>682590918</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>12835870</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>1217951</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>1410331</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>4672562</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>309882586</v>
       </c>
       <c r="D71" t="n">
+        <v>758741534</v>
+      </c>
+      <c r="E71" t="n">
         <v>48096374</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>690221675</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>12976998</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>1258043</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>1435500</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>4752944</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>313559036</v>
       </c>
       <c r="D72" t="n">
+        <v>768075141</v>
+      </c>
+      <c r="E72" t="n">
         <v>48807014</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>698595271</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>13094072</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>1295230</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>1458178</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>4825376</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>317380626</v>
       </c>
       <c r="D73" t="n">
+        <v>779152383</v>
+      </c>
+      <c r="E73" t="n">
         <v>49215286</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>709040362</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>13192904</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>1337255</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>1478008</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>4888568</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>321014951</v>
       </c>
       <c r="D74" t="n">
+        <v>790667059</v>
+      </c>
+      <c r="E74" t="n">
         <v>49766304</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>719730545</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>13330831</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>1373651</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>1495765</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>4969963</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>324850398</v>
       </c>
       <c r="D75" t="n">
+        <v>802330572</v>
+      </c>
+      <c r="E75" t="n">
         <v>50059975</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>730799349</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>13513488</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>1407069</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>1512249</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>5038442</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>329331770</v>
       </c>
       <c r="D76" t="n">
+        <v>813108333</v>
+      </c>
+      <c r="E76" t="n">
         <v>50359577</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>740912849</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>13759883</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>1433265</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1529337</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>5113422</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>334589453</v>
       </c>
       <c r="D77" t="n">
+        <v>822883847</v>
+      </c>
+      <c r="E77" t="n">
         <v>50927753</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>749683772</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>14091477</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>1448984</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>1547117</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>5184744</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>340208083</v>
       </c>
       <c r="D78" t="n">
+        <v>833005096</v>
+      </c>
+      <c r="E78" t="n">
         <v>51568431</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>758626377</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>14526852</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>1453151</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>1574091</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>5256194</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>64009393380</v>
       </c>
       <c r="D79" t="n">
+        <v>166653379254</v>
+      </c>
+      <c r="E79" t="n">
         <v>10355793813</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>152554438700</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>2275568862</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>223741620</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>301761869</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>942074390</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>346424756</v>
       </c>
       <c r="D80" t="n">
+        <v>842632264</v>
+      </c>
+      <c r="E80" t="n">
         <v>52293257</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>767128438</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>14816936</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>1462344</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>1595045</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>5336244</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>351630095</v>
       </c>
       <c r="D81" t="n">
+        <v>852860103</v>
+      </c>
+      <c r="E81" t="n">
         <v>53165624</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>776077432</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>15120158</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>1483209</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>1619617</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>5394063</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>356824231</v>
       </c>
       <c r="D82" t="n">
+        <v>864826110</v>
+      </c>
+      <c r="E82" t="n">
         <v>53791249</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>786816746</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>15592943</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>1510555</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>1644927</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>5469690</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>361349071</v>
       </c>
       <c r="D83" t="n">
+        <v>875974847</v>
+      </c>
+      <c r="E83" t="n">
         <v>54239493</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>797175911</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>15816122</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>1545811</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>1668131</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>5529379</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>365573345</v>
       </c>
       <c r="D84" t="n">
+        <v>887964739</v>
+      </c>
+      <c r="E84" t="n">
         <v>54655382</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>808427792</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>16001318</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>1588853</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>1688435</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>5602959</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>369316765</v>
       </c>
       <c r="D85" t="n">
+        <v>898925252</v>
+      </c>
+      <c r="E85" t="n">
         <v>54976779</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>818736734</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>16193136</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>1633142</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>1706040</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>5679421</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>373115364</v>
       </c>
       <c r="D86" t="n">
+        <v>908504379</v>
+      </c>
+      <c r="E86" t="n">
         <v>55343144</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>827675282</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>16358478</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>1682905</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>1714745</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>5729825</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>376645107</v>
       </c>
       <c r="D87" t="n">
+        <v>916443224</v>
+      </c>
+      <c r="E87" t="n">
         <v>55752274</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>834881217</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>16545107</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>1727936</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>1725776</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>5810914</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>380341486</v>
       </c>
       <c r="D88" t="n">
+        <v>923433753</v>
+      </c>
+      <c r="E88" t="n">
         <v>56098856</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>841119864</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>16831261</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>1763651</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>1736400</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>5883721</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>384673062</v>
       </c>
       <c r="D89" t="n">
+        <v>928824873</v>
+      </c>
+      <c r="E89" t="n">
         <v>56329505</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>845781952</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>17209028</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>1785537</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>1753654</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>5965197</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>389908517</v>
       </c>
       <c r="D90" t="n">
+        <v>935347690</v>
+      </c>
+      <c r="E90" t="n">
         <v>57109070</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>851054939</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>17551822</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>1799876</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>1782517</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>6049466</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>395587393</v>
       </c>
       <c r="D91" t="n">
+        <v>942747053</v>
+      </c>
+      <c r="E91" t="n">
         <v>57834525</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>857076681</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>18076595</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>1813323</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>1807870</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>6138059</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>132470175952</v>
       </c>
       <c r="D92" t="n">
+        <v>344085242795</v>
+      </c>
+      <c r="E92" t="n">
         <v>21373176784</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>314920830388</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>4747250628</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>467280382</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>623966895</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>1952737718</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>401506685</v>
       </c>
       <c r="D93" t="n">
+        <v>952567199</v>
+      </c>
+      <c r="E93" t="n">
         <v>58548165</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>865626974</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>18506446</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>1825931</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>1835927</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>6223756</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>406764034</v>
       </c>
       <c r="D94" t="n">
+        <v>962065613</v>
+      </c>
+      <c r="E94" t="n">
         <v>59142866</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>873766920</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>19152188</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>1843886</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>1853900</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>6305853</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>411893057</v>
       </c>
       <c r="D95" t="n">
+        <v>971165195</v>
+      </c>
+      <c r="E95" t="n">
         <v>59683951</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>881734401</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>19619671</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>1874982</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>1863979</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>6388211</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>415585073</v>
       </c>
       <c r="D96" t="n">
+        <v>978717489</v>
+      </c>
+      <c r="E96" t="n">
         <v>59960366</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>888658902</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>19822297</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>1919271</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>1888263</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>6468390</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>419190696</v>
       </c>
       <c r="D97" t="n">
+        <v>985538368</v>
+      </c>
+      <c r="E97" t="n">
         <v>60251211</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>894784366</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>20065863</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>1975817</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>1912691</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>6548420</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>422693572</v>
       </c>
       <c r="D98" t="n">
+        <v>992151265</v>
+      </c>
+      <c r="E98" t="n">
         <v>60523060</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>900776443</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>20265199</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>2024277</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>1929463</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>6632823</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>426314243</v>
       </c>
       <c r="D99" t="n">
+        <v>998101324</v>
+      </c>
+      <c r="E99" t="n">
         <v>60879064</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>905990143</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>20488884</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>2079372</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>1944802</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>6719059</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>429773584</v>
       </c>
       <c r="D100" t="n">
+        <v>1004237003</v>
+      </c>
+      <c r="E100" t="n">
         <v>61231153</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>911405400</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>20711639</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>2126598</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>1958861</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>6803352</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>433462306</v>
       </c>
       <c r="D101" t="n">
+        <v>1010556329</v>
+      </c>
+      <c r="E101" t="n">
         <v>61992222</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>916620097</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>20923730</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>2166183</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>1970298</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>6883799</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>437950777</v>
       </c>
       <c r="D102" t="n">
+        <v>1018170104</v>
+      </c>
+      <c r="E102" t="n">
         <v>62384532</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>923289493</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>21344482</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>2189805</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>1987924</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>6973868</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>442717898</v>
       </c>
       <c r="D103" t="n">
+        <v>1027881363</v>
+      </c>
+      <c r="E103" t="n">
         <v>62986827</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>931919098</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>21695942</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>2206861</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>2007157</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>7065478</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>448336554</v>
       </c>
       <c r="D104" t="n">
+        <v>1038374943</v>
+      </c>
+      <c r="E104" t="n">
         <v>63736833</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>941071540</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>22168143</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>2217251</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>2029949</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>7151227</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>270036540383</v>
       </c>
       <c r="D105" t="n">
+        <v>700110011785</v>
+      </c>
+      <c r="E105" t="n">
         <v>43477673818</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>640677304553</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>9739265740</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>959010998</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>1271117004</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>3985639672</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>454498378</v>
       </c>
       <c r="D106" t="n">
+        <v>1050294052</v>
+      </c>
+      <c r="E106" t="n">
         <v>64802545</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>951406262</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>22560125</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>2228540</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>2052353</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>7244227</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>459759967</v>
       </c>
       <c r="D107" t="n">
+        <v>1061867097</v>
+      </c>
+      <c r="E107" t="n">
         <v>65571298</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>961653087</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>22983138</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>2248389</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>2066387</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>7344798</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>465026497</v>
       </c>
       <c r="D108" t="n">
+        <v>1074777934</v>
+      </c>
+      <c r="E108" t="n">
         <v>66276067</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>973349436</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>23339002</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>2266338</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>2084814</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>7462277</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>469589772</v>
       </c>
       <c r="D109" t="n">
+        <v>1083982961</v>
+      </c>
+      <c r="E109" t="n">
         <v>66573799</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>981870209</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>23560351</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>2325573</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>2099560</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>7553469</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>473688721</v>
       </c>
       <c r="D110" t="n">
+        <v>1095343421</v>
+      </c>
+      <c r="E110" t="n">
         <v>66860753</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>992345782</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>23965906</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>2385348</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>2113774</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>7671858</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>477426933</v>
       </c>
       <c r="D111" t="n">
+        <v>1108324028</v>
+      </c>
+      <c r="E111" t="n">
         <v>67144892</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1004768958</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>24057793</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>2435701</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>2131831</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>7784853</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>481083335</v>
       </c>
       <c r="D112" t="n">
+        <v>1119772318</v>
+      </c>
+      <c r="E112" t="n">
         <v>67437403</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1015560711</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>24245288</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>2495628</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>2146232</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>7887056</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>484541372</v>
       </c>
       <c r="D113" t="n">
+        <v>1130753608</v>
+      </c>
+      <c r="E113" t="n">
         <v>67716562</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1025891042</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>24454931</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>2545022</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>2158346</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>7987705</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>488215847</v>
       </c>
       <c r="D114" t="n">
+        <v>1144072172</v>
+      </c>
+      <c r="E114" t="n">
         <v>67977050</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1038634230</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>24621101</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>2592701</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>2169151</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>8077939</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>492442481</v>
       </c>
       <c r="D115" t="n">
+        <v>1157082117</v>
+      </c>
+      <c r="E115" t="n">
         <v>68238044</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>1050877736</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>24971163</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>2626727</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>2182074</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>8186373</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>497492476</v>
       </c>
       <c r="D116" t="n">
+        <v>1167827673</v>
+      </c>
+      <c r="E116" t="n">
         <v>68716116</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1060728690</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>25239673</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>2644958</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>2193883</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>8304353</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>503040280</v>
       </c>
       <c r="D117" t="n">
+        <v>1179526949</v>
+      </c>
+      <c r="E117" t="n">
         <v>69300096</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>1071244562</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>25694729</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>2661032</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>2216044</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>8410486</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>545819886825</v>
       </c>
       <c r="D118" t="n">
+        <v>1413593647900</v>
+      </c>
+      <c r="E118" t="n">
         <v>87761962261</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1293482939811</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>19768224680</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>1947477953</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>2567848457</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>8065194738</v>
       </c>
     </row>
